--- a/trunk/plan/Backlog2014.xlsx
+++ b/trunk/plan/Backlog2014.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="13725" windowHeight="8265" tabRatio="764" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="15" windowWidth="13725" windowHeight="8265" tabRatio="764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="37" r:id="rId1"/>
     <sheet name="01_Sprint" sheetId="36" r:id="rId2"/>
+    <sheet name="02_Sprint" sheetId="38" r:id="rId3"/>
+    <sheet name="Arkusz2" sheetId="39" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -234,6 +236,54 @@
   </si>
   <si>
     <t>Telefon do Kotopki</t>
+  </si>
+  <si>
+    <t>Telefon do AndreTech</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefon/spacer do sądu KW </t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>skonsultować zapis w Umowie z Agnieszką nieruchomości</t>
+  </si>
+  <si>
+    <t>skonsultować zapis w Umowie z Agnieszką DB</t>
+  </si>
+  <si>
+    <t>Znaleźć biuro i skompletować dokumenty</t>
+  </si>
+  <si>
+    <t>Słonka</t>
+  </si>
+  <si>
+    <t>Zwrot VAT</t>
+  </si>
+  <si>
+    <t>Zanieść faktury do biura rachunkowego</t>
+  </si>
+  <si>
+    <t>Namiary na firmy tynkarskie od Nowaka</t>
+  </si>
+  <si>
+    <t>Namiary na firmy tynkarskie/kaflowe od TZI</t>
+  </si>
+  <si>
+    <t>Projekt oświetlenia domu z zewnątrz</t>
+  </si>
+  <si>
+    <t>Projektowanie</t>
+  </si>
+  <si>
+    <t>TO DO</t>
   </si>
 </sst>
 </file>
@@ -466,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -526,6 +576,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1125,7 +1182,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1525,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:F15"/>
+  <dimension ref="B4:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1590,7 +1647,9 @@
     <row r="8" spans="2:6">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1600,8 +1659,12 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1612,7 +1675,9 @@
     <row r="10" spans="2:6">
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="17" t="s">
         <v>68</v>
       </c>
@@ -1622,8 +1687,12 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1632,58 +1701,402 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="15">
         <v>3</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="15">
+    <row r="15" spans="2:6">
+      <c r="B15" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7">
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" customHeight="1">
+      <c r="B19" s="15">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="15">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <f>SUM(B5:B22)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/plan/Backlog2014.xlsx
+++ b/trunk/plan/Backlog2014.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="13725" windowHeight="8265" tabRatio="764" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="15" windowWidth="13725" windowHeight="8265" tabRatio="764" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="37" r:id="rId1"/>
-    <sheet name="01_Sprint" sheetId="36" r:id="rId2"/>
-    <sheet name="02_Sprint" sheetId="38" r:id="rId3"/>
-    <sheet name="Arkusz2" sheetId="39" r:id="rId4"/>
+    <sheet name="Ekipy" sheetId="40" r:id="rId2"/>
+    <sheet name="01_Sprint" sheetId="36" r:id="rId3"/>
+    <sheet name="02_Sprint" sheetId="38" r:id="rId4"/>
+    <sheet name="03_Sprint" sheetId="39" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -136,9 +137,6 @@
     <t>Ocieplenie dachu</t>
   </si>
   <si>
-    <t>Instalację rekuperacji</t>
-  </si>
-  <si>
     <t>Mieć jasno i nowocześnie.</t>
   </si>
   <si>
@@ -256,9 +254,6 @@
     <t>skonsultować zapis w Umowie z Agnieszką nieruchomości</t>
   </si>
   <si>
-    <t>skonsultować zapis w Umowie z Agnieszką DB</t>
-  </si>
-  <si>
     <t>Znaleźć biuro i skompletować dokumenty</t>
   </si>
   <si>
@@ -284,13 +279,139 @@
   </si>
   <si>
     <t>TO DO</t>
+  </si>
+  <si>
+    <t>skonsultować zapis w Umowie z Agnieszką DB (Z Dorotą DB)</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Od MKU</t>
+  </si>
+  <si>
+    <t>Tynki gipsowe, 20-21zł/m2</t>
+  </si>
+  <si>
+    <t>Kafelki</t>
+  </si>
+  <si>
+    <t>Od TZI</t>
+  </si>
+  <si>
+    <t>Nie wyceni bez pełnego projektu</t>
+  </si>
+  <si>
+    <t>Od MNI</t>
+  </si>
+  <si>
+    <t>Od MWE</t>
+  </si>
+  <si>
+    <t>Tynki zewnętrzne</t>
+  </si>
+  <si>
+    <t>Ekipa od Nowaka</t>
+  </si>
+  <si>
+    <t>15zł/m2</t>
+  </si>
+  <si>
+    <t>Instalacja elektryczna</t>
+  </si>
+  <si>
+    <t>Skonsultować miejsce kładzena kabli (czy będą szły podłogą -&gt;czyli czy musimy zrobić elektrykę przed wylewką)</t>
+  </si>
+  <si>
+    <t>ZAKRES PRAC</t>
+  </si>
+  <si>
+    <t>EKIPA</t>
+  </si>
+  <si>
+    <t>CENA</t>
+  </si>
+  <si>
+    <t>KONTAKT</t>
+  </si>
+  <si>
+    <t>Termin(?)</t>
+  </si>
+  <si>
+    <t>Kominek</t>
+  </si>
+  <si>
+    <t>Umówić się na sobotę na spotkanie</t>
+  </si>
+  <si>
+    <t>Spotkanie</t>
+  </si>
+  <si>
+    <t>Zrobić listę pytań</t>
+  </si>
+  <si>
+    <t>Łazienka</t>
+  </si>
+  <si>
+    <t>Spotkać się z projektantką</t>
+  </si>
+  <si>
+    <t>Wykonać dokładne pomiary łazienek</t>
+  </si>
+  <si>
+    <t>Dowiedzieć się od Nowaka jak wymierzyć wysokość skosu w łazience.</t>
+  </si>
+  <si>
+    <t>Dowiedzeć się co się dzieje z Umową i kto będzie obsługiwał realizację przyłącza.</t>
+  </si>
+  <si>
+    <t>Instalację wentylacji mechanicznej</t>
+  </si>
+  <si>
+    <t>Przejrzeć deklarację i faktury. Spisać wątpliwości.</t>
+  </si>
+  <si>
+    <t>Wydrukować i złożyć deklarację.</t>
+  </si>
+  <si>
+    <t>Dopytać Armalux o warunki obniżki ceny za projekt oraz umówić się z projektantką.</t>
+  </si>
+  <si>
+    <t>Znaleźć i zadzwonić do dwóch innych hurtowni łazienek.</t>
+  </si>
+  <si>
+    <t>Poszukać koncepcji, zapisać .jpg na pendrivie</t>
+  </si>
+  <si>
+    <t>Zadzwonić do ekipy z Zarowa</t>
+  </si>
+  <si>
+    <t>Tynki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalacje </t>
+  </si>
+  <si>
+    <t>Telefon do tynkarza od MNI</t>
+  </si>
+  <si>
+    <t>Telefon do tynkarza od MWE</t>
+  </si>
+  <si>
+    <t>Ekipa od mamy Słonka</t>
+  </si>
+  <si>
+    <t>Telefon do ekipy od mamy Slonka</t>
+  </si>
+  <si>
+    <t>Słoneka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +446,10 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="7">
@@ -365,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -512,11 +637,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,11 +808,381 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -880,17 +1475,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela20" displayName="Tabela20" ref="A1:F24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela20" displayName="Tabela20" ref="A1:F24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A1:F24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="5"/>
-    <tableColumn id="2" name="Priorytet" dataDxfId="4"/>
-    <tableColumn id="3" name="Rozmiar" dataDxfId="3"/>
-    <tableColumn id="4" name="Nr Sprintu" dataDxfId="2"/>
-    <tableColumn id="5" name="Chcę" dataDxfId="1"/>
-    <tableColumn id="6" name="Aby" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="20"/>
+    <tableColumn id="2" name="Priorytet" dataDxfId="19"/>
+    <tableColumn id="3" name="Rozmiar" dataDxfId="18"/>
+    <tableColumn id="4" name="Nr Sprintu" dataDxfId="17"/>
+    <tableColumn id="5" name="Chcę" dataDxfId="16"/>
+    <tableColumn id="6" name="Aby" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:F25" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="B4:F24"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="SP" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Status" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="Realizator" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Zakres" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="Zadanie" dataDxfId="5" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1182,7 +1791,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1244,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1257,10 +1866,10 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1276,7 +1885,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1292,7 +1901,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1305,10 +1914,10 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1324,7 +1933,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1340,7 +1949,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1353,10 +1962,10 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1369,10 +1978,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1385,10 +1994,10 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1401,10 +2010,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1417,10 +2026,10 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1436,7 +2045,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1508,15 +2117,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1524,15 +2133,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1540,15 +2149,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1581,6 +2190,183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1">
+      <c r="A1" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:F16"/>
   <sheetViews>
@@ -1621,7 +2407,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1654,22 +2440,22 @@
         <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1679,40 +2465,40 @@
         <v>13</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1772,12 +2558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1821,7 +2607,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1838,10 +2624,10 @@
         <v>26</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1863,10 +2649,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -1874,16 +2660,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -1891,16 +2677,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -1915,16 +2701,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -1932,16 +2718,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -1962,10 +2748,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -1973,16 +2759,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1993,13 +2779,13 @@
         <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -2014,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -2031,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -2048,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -2089,14 +2875,393 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="25.5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="41">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="41">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="41">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="41">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="44">
+        <f>SUBTOTAL(109,[SP])</f>
+        <v>47</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/trunk/plan/Backlog2014.xlsx
+++ b/trunk/plan/Backlog2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="13725" windowHeight="8265" tabRatio="764" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="15" windowWidth="13725" windowHeight="8265" tabRatio="764" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="37" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="01_Sprint" sheetId="36" r:id="rId3"/>
     <sheet name="02_Sprint" sheetId="38" r:id="rId4"/>
     <sheet name="03_Sprint" sheetId="39" r:id="rId5"/>
+    <sheet name="04_Sprint" sheetId="41" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
   <si>
     <t>Id</t>
   </si>
@@ -392,12 +393,6 @@
     <t xml:space="preserve">Instalacje </t>
   </si>
   <si>
-    <t>Telefon do tynkarza od MNI</t>
-  </si>
-  <si>
-    <t>Telefon do tynkarza od MWE</t>
-  </si>
-  <si>
     <t>Ekipa od mamy Słonka</t>
   </si>
   <si>
@@ -405,13 +400,112 @@
   </si>
   <si>
     <t>Słoneka</t>
+  </si>
+  <si>
+    <t>Telefon do ekipy od mamy Slonka+ czy potrzebne wcześniej parapety i czy montuje</t>
+  </si>
+  <si>
+    <t>Telefon do tynkarza od MWE+ czy potrzebne wcześniej parapety  i czy montuje</t>
+  </si>
+  <si>
+    <t>Telefon do tynkarza od MNI + czy potrzebne wcześniej parapety i czy montuje</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>Krakowska 119; tel: 71334 99 33/34/35; Cortna, Avicenny, 71334 63 54; mowano, karmelkowa, 71 342 07 24</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Uwagi</t>
+  </si>
+  <si>
+    <t>Wybór kafli i przesłanie informacji Sylwii</t>
+  </si>
+  <si>
+    <t>Dokumenty</t>
+  </si>
+  <si>
+    <t>Porządki w dokumentach</t>
+  </si>
+  <si>
+    <t>Uregulować rachunki (prąd)</t>
+  </si>
+  <si>
+    <t>Rozliczenia</t>
+  </si>
+  <si>
+    <t>Rozliczyć PIT</t>
+  </si>
+  <si>
+    <t>Pan 'Ząbek' ;)</t>
+  </si>
+  <si>
+    <t>ok. 40zł/m2, nie wyceni bez projektu</t>
+  </si>
+  <si>
+    <t>ok. 50zł/m2, nie wyceni bez projektu</t>
+  </si>
+  <si>
+    <t>Ze 'Świdnicy'</t>
+  </si>
+  <si>
+    <t>Wycenią</t>
+  </si>
+  <si>
+    <t>Instalacje wod-kan, podłogówka</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Albinis</t>
+  </si>
+  <si>
+    <t>od MNI</t>
+  </si>
+  <si>
+    <t>zł/m2</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>cena podstawowa</t>
+  </si>
+  <si>
+    <t>zniszczenia 10%</t>
+  </si>
+  <si>
+    <t>RAZEM</t>
+  </si>
+  <si>
+    <t>Ząbek</t>
+  </si>
+  <si>
+    <t>Skontrolować DB (wysokośc raty po obniżeniu%)</t>
+  </si>
+  <si>
+    <t>Instalacje</t>
+  </si>
+  <si>
+    <t>Ustalić kontakt do instalatora ze Świdnicy</t>
+  </si>
+  <si>
+    <t>Wysłać mu dane dot. powierzchni i rzuty</t>
+  </si>
+  <si>
+    <t>Oszacować najbliższe wydatki i kolejną transzę</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +544,20 @@
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="7">
@@ -490,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -737,11 +845,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -829,24 +966,201 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -905,7 +1219,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -915,60 +1229,12 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Tahoma"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Tahoma"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -977,12 +1243,8 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <right/>
+        <top/>
         <bottom/>
       </border>
     </dxf>
@@ -1026,6 +1288,41 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1063,9 +1360,79 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1135,6 +1502,39 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1145,13 +1545,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="7" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1174,6 +1567,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1475,31 +1875,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela20" displayName="Tabela20" ref="A1:F24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela20" displayName="Tabela20" ref="A1:F24" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:F24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="20"/>
-    <tableColumn id="2" name="Priorytet" dataDxfId="19"/>
-    <tableColumn id="3" name="Rozmiar" dataDxfId="18"/>
-    <tableColumn id="4" name="Nr Sprintu" dataDxfId="17"/>
-    <tableColumn id="5" name="Chcę" dataDxfId="16"/>
-    <tableColumn id="6" name="Aby" dataDxfId="15"/>
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Priorytet" dataDxfId="31"/>
+    <tableColumn id="3" name="Rozmiar" dataDxfId="30"/>
+    <tableColumn id="4" name="Nr Sprintu" dataDxfId="29"/>
+    <tableColumn id="5" name="Chcę" dataDxfId="28"/>
+    <tableColumn id="6" name="Aby" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:F25" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="B4:F24"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="SP" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Status" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Realizator" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Zakres" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="Zadanie" dataDxfId="5" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:G25" totalsRowCount="1" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="B4:G24">
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="SP" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Status" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="Realizator" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Zakres" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Zadanie" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Kolumna1" dataDxfId="11" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B3:G21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B3:G21"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="SP" dataDxfId="5"/>
+    <tableColumn id="2" name="Status" dataDxfId="4"/>
+    <tableColumn id="3" name="Realizator" dataDxfId="3"/>
+    <tableColumn id="4" name="Zakres" dataDxfId="2"/>
+    <tableColumn id="5" name="Zadanie" dataDxfId="1"/>
+    <tableColumn id="6" name="Uwagi" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2191,17 +2609,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1">
@@ -2245,9 +2663,11 @@
     <row r="3" spans="1:9">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="36"/>
+        <v>143</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>144</v>
+      </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -2257,9 +2677,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -2269,9 +2687,15 @@
       <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>144</v>
+      </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -2280,15 +2704,9 @@
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>93</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
@@ -2297,11 +2715,15 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="36"/>
+      <c r="A7" s="36" t="s">
+        <v>91</v>
+      </c>
       <c r="B7" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="36"/>
+        <v>92</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
@@ -2311,8 +2733,12 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>140</v>
+      </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
@@ -2322,8 +2748,12 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>142</v>
+      </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
@@ -2332,34 +2762,126 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B11" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C11" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24">
+        <f>(D20+D21)*50</f>
+        <v>6100</v>
+      </c>
+      <c r="C24">
+        <f>B20*D20+B21*D21</f>
+        <v>11430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25">
+        <f>B20*0.1*D20+B21*0.1*D21</f>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26">
+        <f>B24+B25</f>
+        <v>7243</v>
+      </c>
+      <c r="C26">
+        <f>C24</f>
+        <v>11430</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2562,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:F21"/>
     </sheetView>
   </sheetViews>
@@ -2877,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:F25"/>
+  <dimension ref="B4:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2890,7 +3412,7 @@
     <col min="6" max="6" width="54.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" s="32" t="s">
         <v>23</v>
       </c>
@@ -2906,13 +3428,16 @@
       <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="25.5">
+      <c r="G4" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="25.5">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -2923,13 +3448,14 @@
       <c r="F5" s="30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -2940,13 +3466,14 @@
       <c r="F6" s="30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>14</v>
@@ -2957,13 +3484,14 @@
       <c r="F7" s="30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>14</v>
@@ -2974,13 +3502,14 @@
       <c r="F8" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="41">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -2991,13 +3520,14 @@
       <c r="F9" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>14</v>
@@ -3008,13 +3538,14 @@
       <c r="F10" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>14</v>
@@ -3025,13 +3556,14 @@
       <c r="F11" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -3042,16 +3574,17 @@
       <c r="F12" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="41">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>110</v>
@@ -3059,13 +3592,16 @@
       <c r="F13" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="G13" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="41">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>14</v>
@@ -3076,16 +3612,17 @@
       <c r="F14" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -3093,8 +3630,9 @@
       <c r="F15" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="1">
         <v>5</v>
       </c>
@@ -3102,7 +3640,7 @@
         <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>80</v>
@@ -3110,8 +3648,9 @@
       <c r="F16" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>2</v>
       </c>
@@ -3119,7 +3658,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>80</v>
@@ -3127,13 +3666,14 @@
       <c r="F17" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -3144,47 +3684,50 @@
       <c r="F18" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>129</v>
+      </c>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>128</v>
+      </c>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="41">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -3195,13 +3738,14 @@
       <c r="F21" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -3210,10 +3754,11 @@
         <v>123</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>125</v>
+      </c>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -3229,8 +3774,9 @@
       <c r="F23" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -3246,8 +3792,9 @@
       <c r="F24" s="30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="44">
         <f>SUBTOTAL(109,[SP])</f>
         <v>47</v>
@@ -3256,6 +3803,269 @@
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
+      <c r="G25" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="55">
+        <v>3</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="55">
+        <v>2</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="55">
+        <v>3</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="55">
+        <v>3</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
